--- a/OpenCart-RTM/Opencart RTM.xlsx
+++ b/OpenCart-RTM/Opencart RTM.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RTM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>Project Name</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>OpenCart (Frontend)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenCart </t>
   </si>
   <si>
     <t>FRS</t>
@@ -97,12 +94,833 @@
 TC_RF_025
 TC_RF_026</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OpenCart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>TS-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_LF_001
+TC_LF_002
+TC_LF_003
+TC_LF_004
+TC_LF_005
+TC_LF_006
+TC_LF_007
+TC_LF_008 
+TC_LF_009
+TC_LF_010
+TC_LF_011
+TC_LF_012
+TC_LF_013
+TC_LF_14
+TC_LF_15
+TC_LF_16
+TC_LF_017
+TC_LF_018
+TC_LF_019
+TC_LF_020
+TC_LF_021
+TC_LF_022
+TC_LF_023
+</t>
+  </si>
+  <si>
+    <t>TS-003</t>
+  </si>
+  <si>
+    <t>Validate the working of 'Logout' Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_LG_001
+TC_LG_002
+TC_LG_003
+TC_LG_004
+TC_LG_005
+TC_LG_006
+TC_LG_007
+TC_LG_008
+TC_LG_009
+TC_LG_010
+TC_LG_011
+</t>
+  </si>
+  <si>
+    <t>Validate the working of  'Login'  Functionality</t>
+  </si>
+  <si>
+    <t>TS-004</t>
+  </si>
+  <si>
+    <t>Validate the working of Forgot Password Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_FP_001
+TC_FP_002
+TC_FP_003
+TC_FP_004
+TC_FP_005
+TC_FP_006
+TC_FP_007
+TC_FP_008
+TC_FP_009
+TC_FP_010
+TC_FP_011
+TC_FP_012
+TC_FP_013
+TC_FP_014
+TC_FP_015
+TC_FP_016
+TC_FP_017
+TC_FP_018
+TC_FP_019
+TC_FP_020
+TC_FP_021
+TC_FP_022
+TC_FP_023
+TC_FP_024
+TC_FP_025
+</t>
+  </si>
+  <si>
+    <t>TS-005</t>
+  </si>
+  <si>
+    <t>Validate the working of Search Fuctionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SF_001
+TC_SF_002
+TC_SF_003
+TC_SF_004
+TC_SF_005
+TC_SF_006
+TC_SF_007
+TC_SF_008
+TC_SF_009
+TC_SF_010
+TC_SF_011
+TC_SF_012
+TC_SF_013
+TC_SF_014
+TC_SF_015
+TC_SF_016
+TC_SF_017
+TC_SF_018
+TC_SF_019
+TC_SF_020
+TC_SF_021
+TC_SF_022
+</t>
+  </si>
+  <si>
+    <t>TS-006</t>
+  </si>
+  <si>
+    <t>Validate the working of Product Compare
+Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_PC_001
+TC_PC_002
+TC_PC_003
+TC_PC_004
+TC_PC_005
+TC_PC_006
+TC_PC_007
+TC_PC_008
+TC_PC_009
+TC_PC_010
+TC_PC_011
+TC_PC_012
+TC_PC_013
+TC_PC_014
+TC_PC_015
+TC_PC_016
+TC_PC_017
+TC_PC_018
+TC_PC_019
+TC_PC_020
+TC_PC_021
+TC_PC_022
+TC_PC_023
+TC_PC_024
+</t>
+  </si>
+  <si>
+    <t>TS-007</t>
+  </si>
+  <si>
+    <t>Validate the  Product Display Page  functionality for  different type of  product</t>
+  </si>
+  <si>
+    <t>TC_PDP_001
+TC_PDP_002
+TC_PDP_003
+TC_PDP_004
+TC_PDP_005
+TC_PDP_006
+TC_PDP_007
+TC_PDP_008
+TC_PDP_009
+TC_PDP_010
+TC_PDP_011
+TC_PDP_012
+TC_PDP_013
+TC_PDP_014
+TC_PDP_015
+TC_PDP_016
+TC_PDP_017
+TC_PDP_018
+TC_PDP_019
+TC_PDP_020
+TC_PDP_021
+TC_PDP_022
+TC_PDP_023
+TC_PDP_024
+TC_PDP_025
+TC_PDP_026
+TC_PDP_027
+TC_PDP_028
+TC_PDP_029
+TC_PDP_030
+TC_PDP_031
+TC_PDP_032
+TC_PDP_033
+TC_PDP_034
+TC_PDP_035
+TC_PDP_036
+TC_PDP_037</t>
+  </si>
+  <si>
+    <t>TS-008</t>
+  </si>
+  <si>
+    <t>Validate the working of 'Add Cart' Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_ATC_001
+TC_ATC_002
+TC_ATC_003
+TC_ATC_004
+TC_ATC_005
+TC_ATC_006
+TC_ATC_007
+TC_ATC_008
+TC_ATC_009
+</t>
+  </si>
+  <si>
+    <t>TS-009</t>
+  </si>
+  <si>
+    <t>Validate the working of 'Add to Wish list" Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_WL_001
+TC_WL_002
+TC_WL_003
+TC_WL_004
+TC_WL_006
+TC_WL_007
+TC_WL_008
+TC_WL_009
+TC_WL_010
+TC_WL_011
+TC_WL_012
+TC_WL_013
+TC_WL_014
+TC_WL_015
+TC_WL_016
+TC_WL_017
+TC_WL_018
+TC_WL_019
+TC_WL_020
+</t>
+  </si>
+  <si>
+    <t>TS-010</t>
+  </si>
+  <si>
+    <t>Validate the working of  'Shopping  Cart' Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SC_001
+TC_SC_002
+TC_SC_003
+TC_SC_004
+TC_SC_005
+TC_SC_006
+TC_SC_007
+TC_SC_008
+TC_SC_009
+TC_SC_010
+TC_SC_011
+TC_SC_012
+TC_SC_013
+TC_SC_014
+TC_SC_015
+TC_SC_016
+TC_SC_017
+TC_SC_018
+TC_SC_019
+TC_SC_020
+TC_SC_021
+TC_SC_022
+TC_SC_023
+TC_SC_024
+TC_SC_025
+TC_SC_026
+TC_SC_027
+TC_SC_028
+TC_SC_029
+TC_SC_030
+TC_SC_031
+TC_SC_032
+TC_SC_033
+</t>
+  </si>
+  <si>
+    <t>TS-011</t>
+  </si>
+  <si>
+    <t>Validate the working of 'Home Page' functionlaity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_HP_001
+TC_HP_002
+TC_HP_003
+TC_HP_004
+TC_HP_005
+TC_HP_006
+TC_HP_007
+TC_HP_008
+TC_HP_009
+TC_HP_010
+</t>
+  </si>
+  <si>
+    <t>TS-012</t>
+  </si>
+  <si>
+    <t>Validate the working of 'Checkout' Functionality</t>
+  </si>
+  <si>
+    <t>TC_CO_001
+TC_CO_002
+TC_CO_003
+TC_CO_004
+TC_CO_005
+TC_CO_006
+TC_CO_007
+TC_CO_008
+TC_CO_009
+TC_CO_010
+TC_CO_011
+TC_CO_012
+TC_CO_013
+TC_CO_014
+TC_CO_015
+TC_CO_016
+TC_CO_017
+TC_CO_018
+TC_CO_019
+TC_CO_020</t>
+  </si>
+  <si>
+    <t>TS-013</t>
+  </si>
+  <si>
+    <t>Validate the working of 'My Account' Functionlaity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_MA_001
+TC_MA_002
+TC_MA_003
+TC_MA_004
+TC_MA_005
+TC_MA_006
+TC_MA_007
+TC_MA_008
+TC_MA_009
+</t>
+  </si>
+  <si>
+    <t>TS-014</t>
+  </si>
+  <si>
+    <t>Validate the working of 'My Account' &gt; "Account
+Information" Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_MAI_001
+TC_MAI_002
+TC_MAI_003
+TC_MAI_004
+TC_MAI_005
+TC_MAI_006
+TC_MAI_007
+TC_MAI_008
+TC_MAI_009
+TC_MAI_010
+TC_MAI_011
+TC_MAI_012
+TC_MAI_013
+</t>
+  </si>
+  <si>
+    <t>TS-015</t>
+  </si>
+  <si>
+    <t>TS-016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_CP_001
+TC_CP_002
+TC_CP_003
+TC_CP_004
+TC_CP_005
+TC_CP_006
+TC_CP_007
+TC_CP_008
+TC_CP_009
+TC_CP_010
+TC_CP_011
+TC_CP_012
+TC_CP_013
+</t>
+  </si>
+  <si>
+    <t>Validate the  working of 'My Account' &gt; "Change Password " Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of  " My Account "  &gt; "Address Book" Functionality</t>
+  </si>
+  <si>
+    <t>TC_AB_001
+TC_AB_002
+TC_AB_003
+TC_AB_004
+TC_AB_005
+TC_AB_006
+TC_AB_007
+TC_AB_008
+TC_AB_009
+TC_AB_010
+TC_AB_011
+TC_AB_012
+TC_AB_013
+TC_AB_014
+TC_AB_015
+TC_AB_016
+TC_AB_017
+TC_AB_018
+TC_AB_019
+TC_AB_020
+TC_AB_021</t>
+  </si>
+  <si>
+    <t>TS-17</t>
+  </si>
+  <si>
+    <t>TS-18</t>
+  </si>
+  <si>
+    <t>Validate the working of "My Account" &gt; "Payment Method" Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of "MY Account" &gt; "Modify Wish List" Functionality</t>
+  </si>
+  <si>
+    <t>TS-19</t>
+  </si>
+  <si>
+    <t>TS-20</t>
+  </si>
+  <si>
+    <t>Validate the working of "My Order" &gt;  'Order History' Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of 'My Order' &gt; "Subscription' Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_OH_001
+TC_OH_002
+TC_OH_003
+TC_OH_004
+TC_OH_005
+TC_OH_006
+TC_OH_007
+TC_OH_008
+TC_OH_009
+TC_OH_010
+TC_OH_011
+TC_OH_012
+</t>
+  </si>
+  <si>
+    <t>BR_ID-01</t>
+  </si>
+  <si>
+    <t>BR_ID-02</t>
+  </si>
+  <si>
+    <t>BR_ID_03</t>
+  </si>
+  <si>
+    <t>BR_ID-04</t>
+  </si>
+  <si>
+    <t>BR_ID-05</t>
+  </si>
+  <si>
+    <t>BR_ID-06</t>
+  </si>
+  <si>
+    <t>BR_ID-07</t>
+  </si>
+  <si>
+    <t>BR_ID-08</t>
+  </si>
+  <si>
+    <t>BR_ID-09</t>
+  </si>
+  <si>
+    <t>BR_ID-10</t>
+  </si>
+  <si>
+    <t>BR_ID-11</t>
+  </si>
+  <si>
+    <t>BR_ID-12</t>
+  </si>
+  <si>
+    <t>BR_ID-13</t>
+  </si>
+  <si>
+    <t>BR_ID-14</t>
+  </si>
+  <si>
+    <t>BR_ID-14.1</t>
+  </si>
+  <si>
+    <t>BR_ID-14.2</t>
+  </si>
+  <si>
+    <t>BR_ID-14.3</t>
+  </si>
+  <si>
+    <t>BR_ID-14.4</t>
+  </si>
+  <si>
+    <t>BR_ID-15.1</t>
+  </si>
+  <si>
+    <t>TS-21</t>
+  </si>
+  <si>
+    <t>Validate the working of 'My Order' &gt; "Download " Functionality</t>
+  </si>
+  <si>
+    <t>TC_DL_001
+TC_DL_002
+TC_DL_003
+TC_DL_004
+TC_DL_005
+TC_DL_006
+TC_DL_007
+TC_DL_008
+TC_DL_009
+TC_DL_010
+TC_DL_011
+TC_DL_012
+TC_DL_013</t>
+  </si>
+  <si>
+    <t>BR_ID-15.2</t>
+  </si>
+  <si>
+    <t>BR_ID-15.3</t>
+  </si>
+  <si>
+    <t>BR_ID-15.4</t>
+  </si>
+  <si>
+    <t>TS-22</t>
+  </si>
+  <si>
+    <t>Validate the working of  My Orders &gt; "Reward Point" functionality</t>
+  </si>
+  <si>
+    <t>TC_RP_001
+TC_RP_002
+TC_RP_003
+TC_RP_004
+TC_RP_005
+TC_RP_006
+TC_RP_007
+TC_RP_008
+TC_RP_009
+TC_RP_010</t>
+  </si>
+  <si>
+    <t>BR_ID-15.5</t>
+  </si>
+  <si>
+    <t>TS-023</t>
+  </si>
+  <si>
+    <t>Validate the working of My Orders &gt; "Return Request " Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_RS_001
+TC_RS_002
+TC_RS_003
+TC_RS_004
+TC_RS_005
+TC_RS_006
+TC_RS_007
+TC_RS_008
+TC_RS_009
+TC_RS_010
+TC_RS_011
+TC_RS_012
+TC_RS_013
+TC_RS_014
+TC_RS_015
+TC_RS_016
+TC_RS_017
+</t>
+  </si>
+  <si>
+    <t>BR_ID-15.6</t>
+  </si>
+  <si>
+    <t>TS-024</t>
+  </si>
+  <si>
+    <t>Validate the working of My Orders &gt; "Your Transaction" Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_TS_001
+TC_TS_002
+TC_TS_003
+TC_TS_004
+TC_TS_005
+TC_TS_006
+TC_TS_007
+TC_TS_008
+TC_TS_009
+TC_TS_010
+TC_TS_011
+</t>
+  </si>
+  <si>
+    <t>TS-025</t>
+  </si>
+  <si>
+    <t>BR_ID-15.7</t>
+  </si>
+  <si>
+    <t>Validate the working of My Orders &gt; "Recurring Payments" Functionality</t>
+  </si>
+  <si>
+    <t>TC_RCP_001
+TC_RCP_002
+TC_RCP_003
+TC_RCP_004
+TC_RCP_005
+TC_RCP_006
+TC_RCP_007
+TC_RCP_008
+TC_RCP_009</t>
+  </si>
+  <si>
+    <t>BR_ID-16</t>
+  </si>
+  <si>
+    <t>Validate the working of Affiliate functionality</t>
+  </si>
+  <si>
+    <t>TC_AFL_001
+TC_AFL_002
+TC_AFL_003
+TC_AFL_004
+TC_AFL_005
+TC_AFL_006
+TC_AFL_007
+TC_AFL_008
+TC_AFL_009
+TC_AFL_010
+TC_AFL_011
+TC_AFL_012
+TC_AFL_013
+TC_AFL_014
+TC_AFL_015
+TC_AFL_016
+TC_AFL_017
+TC_AFL_018
+TC_AFL_019
+TC_AFL_020
+TC_AFL_021
+TC_AFL_022
+TC_AFL_023
+TC_AFL_024
+TC_AFL_025
+TC_AFL_026
+TC_AFL_027
+TC_AFL_028
+TC_AFL_029</t>
+  </si>
+  <si>
+    <t>BR_ID-17</t>
+  </si>
+  <si>
+    <t>TS-27</t>
+  </si>
+  <si>
+    <t>Validate the working of 'Newsletter' Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_NLT_001
+TC_NLT_002
+TC_NLT_003
+TC_NLT_004
+TC_NLT_005
+TC_NLT_006
+TC_NLT_007
+TC_NLT_008
+TC_NLT_009
+TC_NLT_010
+TC_NLT_011
+TC_NLT_012
+TC_NLT_013
+</t>
+  </si>
+  <si>
+    <t>BR_ID-18</t>
+  </si>
+  <si>
+    <t>TS-28</t>
+  </si>
+  <si>
+    <t>Validate the working of " Terms &amp; Conditions" Functionality</t>
+  </si>
+  <si>
+    <t>BR_ID-19</t>
+  </si>
+  <si>
+    <t>TS-29</t>
+  </si>
+  <si>
+    <t>Validate the working of "Contact Us" Functionality</t>
+  </si>
+  <si>
+    <t>TC_CU_001
+TC_CU_002
+TC_CU_003
+TC_CU_004
+TC_CU_005
+TC_CU_006
+TC_CU_007
+TC_CU_008
+TC_CU_009
+TC_CU_010
+TC_CU_011
+TC_CU_012
+TC_CU_013</t>
+  </si>
+  <si>
+    <t>BR_ID-20</t>
+  </si>
+  <si>
+    <t>TS-30</t>
+  </si>
+  <si>
+    <t>Validate the working of "Gift Certificate" Functionality</t>
+  </si>
+  <si>
+    <t>BR_ID-21</t>
+  </si>
+  <si>
+    <t>TS-31</t>
+  </si>
+  <si>
+    <t>Validate the working of "Special offer" Functionality</t>
+  </si>
+  <si>
+    <t>BR_ID-22</t>
+  </si>
+  <si>
+    <t>TS-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the working of "Header" option "Footer" option "Menu" option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_HMF_001
+TC_HMF_002
+TC_HMF_003
+TC_HMF_004
+TC_HMF_005
+TC_HMF_006
+TC_HMF_007
+TC_HMF_008
+TC_HMF_009
+TC_HMF_010
+TC_HMF_011
+TC_HMF_012
+TC_HMF_013
+TC_HMF_014
+TC_HMF_015
+TC_HMF_016
+TC_HMF_017
+TC_HMF_018
+TC_HMF_019
+TC_HMF_020
+TC_HMF_021
+TC_HMF_022
+</t>
+  </si>
+  <si>
+    <t>BR_ID-23</t>
+  </si>
+  <si>
+    <t>TS-33</t>
+  </si>
+  <si>
+    <t>Validate the complete Application functionality for different "Currency"</t>
+  </si>
+  <si>
+    <t>18/1/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +950,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,7 +976,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,28 +1020,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,94 +1338,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44959</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="395.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="395.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    </row>
+    <row r="11" spans="1:4" ht="349.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="244.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="330.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="330.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="330.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="330.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="390.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="266.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="261" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
